--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>614</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Nguyễn Yến Linh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>615</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Mỹ Duyên</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>616</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chị duyên</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>617</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cô tú</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>14100000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20100000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19100000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1748000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,7 +809,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +819,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +829,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>571428.5714285715</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +859,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>648000</v>
       </c>
     </row>
     <row r="8">
@@ -557,7 +909,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +919,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>285714.2857142857</v>
       </c>
     </row>
     <row r="14">
@@ -607,7 +959,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="18">
@@ -757,7 +1109,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1289428.571428571</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +1119,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1385714.285714286</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +1135,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2675142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,35 +742,91 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>618</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>14100000</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>20100000</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>6000000</v>
       </c>
-      <c r="K6" t="n">
-        <v>20100000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>19100000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1748000</v>
+      <c r="K7" t="n">
+        <v>26100000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25100000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2348000</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1115,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="28">
@@ -1129,7 +1185,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="35">
@@ -1139,7 +1195,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2675142.857142857</v>
+        <v>3275142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -415,14 +415,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>635</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,35 +961,375 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>626</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nhấn đồng tiền</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>628</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nguyễn thị lệ trang</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>629</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phạm Thị Trúc Lài</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>631</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>632</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thắm</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>635</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>20100000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26100000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>25100000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2348000</v>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>43100000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50600000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>49600000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4578000</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +1368,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -875,7 +1378,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="4">
@@ -885,7 +1388,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571428.5714285715</v>
+        <v>2285714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +1398,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="6">
@@ -915,7 +1418,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648000</v>
+        <v>1778000</v>
       </c>
     </row>
     <row r="8">
@@ -1065,7 +1568,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1075,7 +1578,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="24">
@@ -1115,7 +1618,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>600000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="28">
@@ -1165,7 +1668,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1289428.571428571</v>
+        <v>5243714.285714285</v>
       </c>
     </row>
     <row r="33">
@@ -1185,7 +1688,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600000</v>
+        <v>2557142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -1195,7 +1698,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3275142.857142857</v>
+        <v>9186571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +913,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1301,35 +1301,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>643</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Trần Thị Nhi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>43100000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>46100000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>7500000</v>
       </c>
-      <c r="K13" t="n">
-        <v>50600000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>49600000</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="K14" t="n">
+        <v>53600000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>52600000</v>
+      </c>
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
-        <v>4578000</v>
+      <c r="N14" t="n">
+        <v>4818000</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1424,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1378,7 +1434,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="4">
@@ -1388,7 +1444,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2285714.285714286</v>
+        <v>2857142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -1418,7 +1474,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1778000</v>
+        <v>2018000</v>
       </c>
     </row>
     <row r="8">
@@ -1458,7 +1514,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1614,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -1658,7 +1714,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
@@ -1668,7 +1724,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5243714.285714285</v>
+        <v>5625142.857142857</v>
       </c>
     </row>
     <row r="33">
@@ -1698,7 +1754,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9186571.428571429</v>
+        <v>9568000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,35 +1357,765 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>647</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bé Su</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>650</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mẹ mai sang</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>653</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>654</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ngọc khanh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>657</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>truương thị luyến</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>661</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>662</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>663</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>665</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>666</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cắt mắt phượng</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>667</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>668</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>669</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>46100000</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>53600000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>52600000</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>105900000</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>119400000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>107400000</v>
+      </c>
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="n">
-        <v>4818000</v>
+      <c r="N27" t="n">
+        <v>9626000</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +2154,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1434,7 +2164,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350000</v>
+        <v>735000</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +2174,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2857142.857142857</v>
+        <v>6000000.000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1474,7 +2204,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2018000</v>
+        <v>4706000</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +2254,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +2264,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>285714.2857142857</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="14">
@@ -1574,7 +2304,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1100000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="18">
@@ -1674,7 +2404,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1700000</v>
+        <v>2620000</v>
       </c>
     </row>
     <row r="28">
@@ -1724,7 +2454,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5625142.857142857</v>
+        <v>11841000</v>
       </c>
     </row>
     <row r="33">
@@ -1734,7 +2464,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1385714.285714286</v>
+        <v>3157142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -1744,7 +2474,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2557142.857142857</v>
+        <v>3477142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -1754,7 +2484,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9568000</v>
+        <v>18475285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1793,13 +1793,13 @@
         <v>5000000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="M21" t="n">
         <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="22">
@@ -2087,35 +2087,203 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>675</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Đoàn Minh Thư</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v/>
+      </c>
+      <c r="I27" t="n">
+        <v/>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>676</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Tâm</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="I28" t="n">
+        <v/>
+      </c>
+      <c r="J28" t="n">
+        <v/>
+      </c>
+      <c r="K28" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>680</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">triệu tú kiều </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v/>
+      </c>
+      <c r="J29" t="n">
+        <v/>
+      </c>
+      <c r="K29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>105900000</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>121600000</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>13500000</v>
       </c>
-      <c r="K27" t="n">
-        <v>119400000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>107400000</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="K30" t="n">
+        <v>135100000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>129600000</v>
+      </c>
+      <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="n">
-        <v>9626000</v>
+      <c r="N30" t="n">
+        <v>11742000</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4706000</v>
+        <v>5122000</v>
       </c>
     </row>
     <row r="8">
@@ -2304,7 +2472,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2300000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="18">
@@ -2404,7 +2572,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2620000</v>
+        <v>3820000</v>
       </c>
     </row>
     <row r="28">
@@ -2454,7 +2622,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11841000</v>
+        <v>12257000</v>
       </c>
     </row>
     <row r="33">
@@ -2464,7 +2632,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3157142.857142857</v>
+        <v>3657142.857142857</v>
       </c>
     </row>
     <row r="34">
@@ -2474,7 +2642,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3477142.857142857</v>
+        <v>4677142.857142857</v>
       </c>
     </row>
     <row r="35">
@@ -2484,7 +2652,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18475285.71428572</v>
+        <v>20591285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,35 +2255,149 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>685</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thoa</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="I30" t="n">
+        <v/>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>686</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>121600000</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="K30" t="n">
-        <v>135100000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>129600000</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>123400000</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>140900000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>135400000</v>
+      </c>
+      <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="n">
-        <v>11742000</v>
+      <c r="N32" t="n">
+        <v>12206000</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2436,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -2332,7 +2446,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="4">
@@ -2342,7 +2456,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6000000.000000001</v>
+        <v>7142857.142857144</v>
       </c>
     </row>
     <row r="5">
@@ -2372,7 +2486,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5122000</v>
+        <v>5586000</v>
       </c>
     </row>
     <row r="8">
@@ -2622,7 +2736,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12257000</v>
+        <v>14003857.14285714</v>
       </c>
     </row>
     <row r="33">
@@ -2652,7 +2766,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20591285.71428572</v>
+        <v>22338142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2369,35 +2369,91 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>688</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C.hạnh</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="I32" t="n">
+        <v/>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>123400000</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>128900000</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>17500000</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
+        <v>146400000</v>
+      </c>
+      <c r="L33" t="n">
         <v>140900000</v>
       </c>
-      <c r="L32" t="n">
-        <v>135400000</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
-        <v>12206000</v>
+      <c r="N33" t="n">
+        <v>12756000</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2592,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2546,7 +2602,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>857142.8571428573</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -2586,7 +2642,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2800000</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="18">
@@ -2636,7 +2692,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2646,7 +2702,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857142.8571428573</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="24">
@@ -2746,7 +2802,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3657142.857142857</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="34">
@@ -2756,7 +2812,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4677142.857142857</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="35">
@@ -2766,7 +2822,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22338142.85714286</v>
+        <v>23745285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="I27" t="n">
         <v/>
@@ -2128,7 +2128,7 @@
         <v/>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="L27" t="n">
         <v>1500000</v>
@@ -2425,35 +2425,147 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>690</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Đặng Thị Hồng Hạnh</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v/>
+      </c>
+      <c r="J33" t="n">
+        <v/>
+      </c>
+      <c r="K33" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>691</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nguyễn Yến Nhi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="I34" t="n">
+        <v/>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>128900000</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>152900000</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>17500000</v>
       </c>
-      <c r="K33" t="n">
-        <v>146400000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>140900000</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="K35" t="n">
+        <v>170400000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>163400000</v>
+      </c>
+      <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>12756000</v>
+      <c r="N35" t="n">
+        <v>14556000</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2654,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5586000</v>
+        <v>7386000</v>
       </c>
     </row>
     <row r="8">
@@ -2792,7 +2904,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14003857.14285714</v>
+        <v>15803857.14285714</v>
       </c>
     </row>
     <row r="33">
@@ -2822,7 +2934,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23745285.71428572</v>
+        <v>25545285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,35 +554,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>704</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K4" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9900000</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="n">
-        <v>900000</v>
+      <c r="N4" t="n">
+        <v>990000</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,35 +2593,315 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>698</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Lâm Tuyết Nghi</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="I35" t="n">
+        <v/>
+      </c>
+      <c r="J35" t="n">
+        <v/>
+      </c>
+      <c r="K35" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>700</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I36" t="n">
+        <v/>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>701</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Thượng</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v/>
+      </c>
+      <c r="J37" t="n">
+        <v/>
+      </c>
+      <c r="K37" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>703</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ngô Thị Trúc Mỹ</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="I38" t="n">
+        <v/>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>704</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>900000</v>
+      </c>
+      <c r="I39" t="n">
+        <v/>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v>900000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>152900000</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>162500000</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>17500000</v>
       </c>
-      <c r="K35" t="n">
-        <v>170400000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>163400000</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="K40" t="n">
+        <v>180000000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>173000000</v>
+      </c>
+      <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="n">
-        <v>14556000</v>
+      <c r="N40" t="n">
+        <v>15334000</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,63 +2940,63 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>8285714.285714286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7142857.142857144</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8164000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7386000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2670,7 +3006,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2680,57 +3016,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-500000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1142857.142857143</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2740,27 +3076,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2770,7 +3106,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2780,57 +3116,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1428571.428571429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1428571.428571429</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2840,27 +3176,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3820000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3820000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2870,7 +3206,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2880,61 +3216,51 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0</v>
+        <v>16939714.28571429</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15803857.14285714</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4492857.142857143</v>
+        <v>5248571.428571429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5248571.428571429</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>25545285.71428572</v>
+        <v>26681142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 8-2024.xlsx
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,35 +2873,91 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>709</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I40" t="n">
+        <v/>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>162500000</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>163000000</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>17500000</v>
       </c>
-      <c r="K40" t="n">
-        <v>180000000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>173000000</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="K41" t="n">
+        <v>180500000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>173500000</v>
+      </c>
+      <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="n">
-        <v>15334000</v>
+      <c r="N41" t="n">
+        <v>15384000</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2986,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -2940,7 +2996,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -2950,7 +3006,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8285714.285714286</v>
+        <v>8571428.571428573</v>
       </c>
     </row>
     <row r="4">
@@ -2980,7 +3036,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8164000</v>
+        <v>8214000</v>
       </c>
     </row>
     <row r="7">
@@ -3230,7 +3286,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16939714.28571429</v>
+        <v>17275428.57142857</v>
       </c>
     </row>
     <row r="32">
@@ -3260,7 +3316,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26681142.85714286</v>
+        <v>27016857.14285715</v>
       </c>
     </row>
   </sheetData>
